--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X20 2200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X20 2200 bosquet replay.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -93,24 +93,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -156,10 +138,25 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
   </si>
   <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
     <t>165w, submax 1</t>
+  </si>
+  <si>
+    <t>180w, submax 2</t>
   </si>
   <si>
     <t>submax 3</t>
@@ -168,31 +165,377 @@
     <t>max</t>
   </si>
   <si>
-    <t>180w, submax 2</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -200,20 +543,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -221,6 +853,1200 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000914351851851852</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.00103009259259259</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.00114583333333333</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.00126157407407407</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.00137731481481481</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.00149305555555556</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.0016087962962963</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00172453703703704</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00184027777777778</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00195601851851852</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00207175925925926</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.0021875</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00230324074074074</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00241898148148148</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00253472222222222</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00265046296296296</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.0027662037037037</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00288194444444444</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00299768518518518</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.00311342592592593</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00322916666666667</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00334490740740741</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00346064814814815</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00357638888888889</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.00369212962962963</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00380787037037037</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00392361111111111</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00403935185185185</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00415509259259259</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.00427083333333333</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00438657407407407</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00450231481481481</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00461805555555556</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.0047337962962963</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00484953703703704</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00496527777777778</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00508101851851852</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00519675925925926</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.0053125</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00542824074074074</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00554398148148148</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00565972222222222</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00577546296296296</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.0058912037037037</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00600694444444444</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00612268518518518</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.00623842592592593</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00635416666666667</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00646990740740741</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00658564814814815</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00670138888888889</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00681712962962963</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00693287037037037</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00704861111111111</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00716435185185185</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00728009259259259</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.00739583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.61</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.09</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.77</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.73</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.78</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.09</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.77</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.61</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.93</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="418279639"/>
+        <c:axId val="758744333"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="418279639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758744333"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="758744333"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418279639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="9105900"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,21 +2330,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A6" sqref="E6:E64 A6:A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -540,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -599,57 +2425,57 @@
         <v>24</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.43604166666666666</v>
+        <v>0.436041666666667</v>
       </c>
       <c r="C6">
         <v>71.08</v>
@@ -679,7 +2505,7 @@
         <v>74</v>
       </c>
       <c r="L6">
-        <v>130.22999999999999</v>
+        <v>130.23</v>
       </c>
       <c r="M6">
         <v>1293.29</v>
@@ -697,15 +2523,15 @@
         <v>50.55</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>7.9861111111111105E-4</v>
+        <v>0.000798611111111111</v>
       </c>
       <c r="B7" s="1">
-        <v>0.43684027777777779</v>
+        <v>0.436840277777778</v>
       </c>
       <c r="C7">
         <v>74.13</v>
@@ -732,7 +2558,7 @@
         <v>120.92</v>
       </c>
       <c r="K7">
-        <v>72.150000000000006</v>
+        <v>72.15</v>
       </c>
       <c r="L7">
         <v>123.62</v>
@@ -753,18 +2579,18 @@
         <v>47.97</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>9.1435185185185185E-4</v>
+        <v>0.000914351851851852</v>
       </c>
       <c r="B8" s="1">
-        <v>0.43695601851851856</v>
+        <v>0.436956018518519</v>
       </c>
       <c r="C8">
         <v>69.17</v>
       </c>
       <c r="D8">
-        <v>75.430000000000007</v>
+        <v>75.43</v>
       </c>
       <c r="E8">
         <v>5.22</v>
@@ -791,7 +2617,7 @@
         <v>127.81</v>
       </c>
       <c r="M8">
-        <v>1259.8800000000001</v>
+        <v>1259.88</v>
       </c>
       <c r="N8">
         <v>2139.65</v>
@@ -806,18 +2632,18 @@
         <v>50.06</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>1.0300925925925926E-3</v>
+        <v>0.00103009259259259</v>
       </c>
       <c r="B9" s="1">
-        <v>0.43707175925925923</v>
+        <v>0.437071759259259</v>
       </c>
       <c r="C9">
-        <v>65.040000000000006</v>
+        <v>65.04</v>
       </c>
       <c r="D9">
-        <v>76.430000000000007</v>
+        <v>76.43</v>
       </c>
       <c r="E9">
         <v>4.97</v>
@@ -841,13 +2667,13 @@
         <v>74</v>
       </c>
       <c r="L9">
-        <v>129.72999999999999</v>
+        <v>129.73</v>
       </c>
       <c r="M9">
         <v>1332.79</v>
       </c>
       <c r="N9">
-        <v>2263.4699999999998</v>
+        <v>2263.47</v>
       </c>
       <c r="O9">
         <v>3.36</v>
@@ -859,12 +2685,12 @@
         <v>50.23</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>1.1458333333333333E-3</v>
+        <v>0.00114583333333333</v>
       </c>
       <c r="B10" s="1">
-        <v>0.43718750000000001</v>
+        <v>0.4371875</v>
       </c>
       <c r="C10">
         <v>69</v>
@@ -912,18 +2738,18 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>1.261574074074074E-3</v>
+        <v>0.00126157407407407</v>
       </c>
       <c r="B11" s="1">
-        <v>0.43730324074074073</v>
+        <v>0.437303240740741</v>
       </c>
       <c r="C11">
         <v>63.41</v>
       </c>
       <c r="D11">
-        <v>74.900000000000006</v>
+        <v>74.9</v>
       </c>
       <c r="E11">
         <v>4.75</v>
@@ -965,12 +2791,12 @@
         <v>50.94</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>1.3773148148148147E-3</v>
+        <v>0.00137731481481481</v>
       </c>
       <c r="B12" s="1">
-        <v>0.43741898148148151</v>
+        <v>0.437418981481482</v>
       </c>
       <c r="C12">
         <v>61.74</v>
@@ -1006,7 +2832,7 @@
         <v>1423.92</v>
       </c>
       <c r="N12">
-        <v>2418.2399999999998</v>
+        <v>2418.24</v>
       </c>
       <c r="O12">
         <v>3.17</v>
@@ -1018,12 +2844,12 @@
         <v>50.62</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>1.4930555555555556E-3</v>
+        <v>0.00149305555555556</v>
       </c>
       <c r="B13" s="1">
-        <v>0.43753472222222217</v>
+        <v>0.437534722222222</v>
       </c>
       <c r="C13">
         <v>68.13</v>
@@ -1059,7 +2885,7 @@
         <v>1244.92</v>
       </c>
       <c r="N13">
-        <v>2114.2399999999998</v>
+        <v>2114.24</v>
       </c>
       <c r="O13">
         <v>3.48</v>
@@ -1071,21 +2897,21 @@
         <v>50.28</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.6087962962962963E-3</v>
+        <v>0.0016087962962963</v>
       </c>
       <c r="B14" s="1">
-        <v>0.43765046296296295</v>
+        <v>0.437650462962963</v>
       </c>
       <c r="C14">
-        <v>65.150000000000006</v>
+        <v>65.15</v>
       </c>
       <c r="D14">
         <v>78.27</v>
       </c>
       <c r="E14">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1109,10 +2935,10 @@
         <v>130.75</v>
       </c>
       <c r="M14">
-        <v>1294.0999999999999</v>
+        <v>1294.1</v>
       </c>
       <c r="N14">
-        <v>2197.7600000000002</v>
+        <v>2197.76</v>
       </c>
       <c r="O14">
         <v>3.43</v>
@@ -1124,12 +2950,12 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.7245370370370372E-3</v>
+        <v>0.00172453703703704</v>
       </c>
       <c r="B15" s="1">
-        <v>0.43776620370370373</v>
+        <v>0.437766203703704</v>
       </c>
       <c r="C15">
         <v>65.64</v>
@@ -1177,19 +3003,19 @@
         <v>48.44</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U15">
         <f>AVERAGE(C6:C15)</f>
-        <v>67.248999999999995</v>
+        <v>67.249</v>
       </c>
       <c r="V15">
         <f t="shared" ref="V15:AI15" si="0">AVERAGE(D6:D15)</f>
-        <v>75.976000000000013</v>
+        <v>75.976</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
-        <v>5.1070000000000011</v>
+        <v>5.107</v>
       </c>
       <c r="X15">
         <f t="shared" si="0"/>
@@ -1197,27 +3023,27 @@
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>59.284000000000006</v>
+        <v>59.284</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
-        <v>420.34399999999994</v>
+        <v>420.344</v>
       </c>
       <c r="AA15">
         <f t="shared" si="0"/>
-        <v>124.86800000000001</v>
+        <v>124.868</v>
       </c>
       <c r="AB15">
         <f t="shared" si="0"/>
-        <v>121.09200000000001</v>
+        <v>121.092</v>
       </c>
       <c r="AC15">
         <f t="shared" si="0"/>
-        <v>73.015000000000001</v>
+        <v>73.015</v>
       </c>
       <c r="AD15">
         <f t="shared" si="0"/>
-        <v>128.15699999999998</v>
+        <v>128.157</v>
       </c>
       <c r="AE15">
         <f t="shared" si="0"/>
@@ -1229,7 +3055,7 @@
       </c>
       <c r="AG15">
         <f t="shared" si="0"/>
-        <v>3.4450000000000003</v>
+        <v>3.445</v>
       </c>
       <c r="AH15">
         <f t="shared" si="0"/>
@@ -1237,15 +3063,15 @@
       </c>
       <c r="AI15">
         <f t="shared" si="0"/>
-        <v>50.031999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+        <v>50.032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.8402777777777777E-3</v>
+        <v>0.00184027777777778</v>
       </c>
       <c r="B16" s="1">
-        <v>0.43788194444444445</v>
+        <v>0.437881944444444</v>
       </c>
       <c r="C16">
         <v>60.93</v>
@@ -1293,18 +3119,18 @@
         <v>48.17</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.9560185185185184E-3</v>
+        <v>0.00195601851851852</v>
       </c>
       <c r="B17" s="1">
-        <v>0.43799768518518517</v>
+        <v>0.437997685185185</v>
       </c>
       <c r="C17">
         <v>66.31</v>
       </c>
       <c r="D17">
-        <v>75.459999999999994</v>
+        <v>75.46</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1331,7 +3157,7 @@
         <v>128.71</v>
       </c>
       <c r="M17">
-        <v>1304.1500000000001</v>
+        <v>1304.15</v>
       </c>
       <c r="N17">
         <v>2214.83</v>
@@ -1346,21 +3172,21 @@
         <v>52.72</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
-        <v>2.0717592592592593E-3</v>
+        <v>0.00207175925925926</v>
       </c>
       <c r="B18" s="1">
-        <v>0.43811342592592589</v>
+        <v>0.438113425925926</v>
       </c>
       <c r="C18">
-        <v>65.069999999999993</v>
+        <v>65.07</v>
       </c>
       <c r="D18">
-        <v>75.930000000000007</v>
+        <v>75.93</v>
       </c>
       <c r="E18">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="F18">
         <v>2.91</v>
@@ -1399,18 +3225,18 @@
         <v>47.63</v>
       </c>
       <c r="S18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>2.1874999999999998E-3</v>
+        <v>0.0021875</v>
       </c>
       <c r="B19" s="1">
-        <v>0.43822916666666667</v>
+        <v>0.438229166666667</v>
       </c>
       <c r="C19">
-        <v>75.099999999999994</v>
+        <v>75.1</v>
       </c>
       <c r="D19">
         <v>79.3</v>
@@ -1455,12 +3281,12 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>2.3032407407407407E-3</v>
+        <v>0.00230324074074074</v>
       </c>
       <c r="B20" s="1">
-        <v>0.43834490740740745</v>
+        <v>0.438344907407407</v>
       </c>
       <c r="C20">
         <v>79.66</v>
@@ -1508,12 +3334,12 @@
         <v>50.07</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>2.4189814814814816E-3</v>
+        <v>0.00241898148148148</v>
       </c>
       <c r="B21" s="1">
-        <v>0.43846064814814811</v>
+        <v>0.438460648148148</v>
       </c>
       <c r="C21">
         <v>88.79</v>
@@ -1543,7 +3369,7 @@
         <v>71</v>
       </c>
       <c r="L21">
-        <v>138.97999999999999</v>
+        <v>138.98</v>
       </c>
       <c r="M21">
         <v>871.67</v>
@@ -1561,12 +3387,12 @@
         <v>43.47</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>2.5347222222222221E-3</v>
+        <v>0.00253472222222222</v>
       </c>
       <c r="B22" s="1">
-        <v>0.43857638888888889</v>
+        <v>0.438576388888889</v>
       </c>
       <c r="C22">
         <v>97.01</v>
@@ -1587,7 +3413,7 @@
         <v>379.5</v>
       </c>
       <c r="I22">
-        <v>144.38999999999999</v>
+        <v>144.39</v>
       </c>
       <c r="J22">
         <v>123</v>
@@ -1596,7 +3422,7 @@
         <v>63</v>
       </c>
       <c r="L22">
-        <v>133.97999999999999</v>
+        <v>133.98</v>
       </c>
       <c r="M22">
         <v>763.27</v>
@@ -1611,15 +3437,15 @@
         <v>85.85</v>
       </c>
       <c r="Q22">
-        <v>37.770000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>37.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.6504629629629625E-3</v>
+        <v>0.00265046296296296</v>
       </c>
       <c r="B23" s="1">
-        <v>0.43869212962962961</v>
+        <v>0.43869212962963</v>
       </c>
       <c r="C23">
         <v>98.61</v>
@@ -1667,12 +3493,12 @@
         <v>39.81</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.7662037037037034E-3</v>
+        <v>0.0027662037037037</v>
       </c>
       <c r="B24" s="1">
-        <v>0.43880787037037039</v>
+        <v>0.43880787037037</v>
       </c>
       <c r="C24">
         <v>99.52</v>
@@ -1702,13 +3528,13 @@
         <v>60</v>
       </c>
       <c r="L24">
-        <v>144.33000000000001</v>
+        <v>144.33</v>
       </c>
       <c r="M24">
         <v>657.8</v>
       </c>
       <c r="N24">
-        <v>1117.1400000000001</v>
+        <v>1117.14</v>
       </c>
       <c r="O24">
         <v>5.73</v>
@@ -1720,12 +3546,12 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.8819444444444444E-3</v>
+        <v>0.00288194444444444</v>
       </c>
       <c r="B25" s="1">
-        <v>0.43892361111111106</v>
+        <v>0.438923611111111</v>
       </c>
       <c r="C25">
         <v>100.29</v>
@@ -1758,10 +3584,10 @@
         <v>145.32</v>
       </c>
       <c r="M25">
-        <v>648.08000000000004</v>
+        <v>648.08</v>
       </c>
       <c r="N25">
-        <v>1100.6300000000001</v>
+        <v>1100.63</v>
       </c>
       <c r="O25">
         <v>5.97</v>
@@ -1770,15 +3596,15 @@
         <v>109.41</v>
       </c>
       <c r="Q25">
-        <v>38.479999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>38.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2.9976851851851848E-3</v>
+        <v>0.00299768518518518</v>
       </c>
       <c r="B26" s="1">
-        <v>0.43903935185185183</v>
+        <v>0.439039351851852</v>
       </c>
       <c r="C26">
         <v>100.12</v>
@@ -1787,7 +3613,7 @@
         <v>93.65</v>
       </c>
       <c r="E26">
-        <v>9.3800000000000008</v>
+        <v>9.38</v>
       </c>
       <c r="F26">
         <v>5.52</v>
@@ -1814,7 +3640,7 @@
         <v>657.64</v>
       </c>
       <c r="N26">
-        <v>1116.8599999999999</v>
+        <v>1116.86</v>
       </c>
       <c r="O26">
         <v>5.88</v>
@@ -1826,12 +3652,12 @@
         <v>45.61</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>3.1134259259259257E-3</v>
+        <v>0.00311342592592593</v>
       </c>
       <c r="B27" s="1">
-        <v>0.43915509259259261</v>
+        <v>0.439155092592593</v>
       </c>
       <c r="C27">
         <v>98.31</v>
@@ -1840,13 +3666,13 @@
         <v>93.74</v>
       </c>
       <c r="E27">
-        <v>9.2200000000000006</v>
+        <v>9.22</v>
       </c>
       <c r="F27">
         <v>5.43</v>
       </c>
       <c r="G27">
-        <v>65.739999999999995</v>
+        <v>65.74</v>
       </c>
       <c r="H27">
         <v>292.75</v>
@@ -1867,7 +3693,7 @@
         <v>678.41</v>
       </c>
       <c r="N27">
-        <v>1152.1300000000001</v>
+        <v>1152.13</v>
       </c>
       <c r="O27">
         <v>5.86</v>
@@ -1879,12 +3705,12 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>3.2291666666666666E-3</v>
+        <v>0.00322916666666667</v>
       </c>
       <c r="B28" s="1">
-        <v>0.43927083333333333</v>
+        <v>0.439270833333333</v>
       </c>
       <c r="C28">
         <v>103.04</v>
@@ -1908,7 +3734,7 @@
         <v>200.13</v>
       </c>
       <c r="J28">
-        <v>132.88999999999999</v>
+        <v>132.89</v>
       </c>
       <c r="K28">
         <v>62</v>
@@ -1929,15 +3755,15 @@
         <v>114.57</v>
       </c>
       <c r="Q28">
-        <v>39.549999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>39.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>3.3449074074074071E-3</v>
+        <v>0.00334490740740741</v>
       </c>
       <c r="B29" s="1">
-        <v>0.43938657407407411</v>
+        <v>0.439386574074074</v>
       </c>
       <c r="C29">
         <v>103.7</v>
@@ -1967,13 +3793,13 @@
         <v>62</v>
       </c>
       <c r="L29">
-        <v>145.22999999999999</v>
+        <v>145.23</v>
       </c>
       <c r="M29">
         <v>625.09</v>
       </c>
       <c r="N29">
-        <v>1061.5899999999999</v>
+        <v>1061.59</v>
       </c>
       <c r="O29">
         <v>6.57</v>
@@ -1985,12 +3811,12 @@
         <v>32.53</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>3.4606481481481485E-3</v>
+        <v>0.00346064814814815</v>
       </c>
       <c r="B30" s="1">
-        <v>0.43950231481481478</v>
+        <v>0.439502314814815</v>
       </c>
       <c r="C30">
         <v>100.7</v>
@@ -1999,16 +3825,16 @@
         <v>97.14</v>
       </c>
       <c r="E30">
-        <v>9.7799999999999994</v>
+        <v>9.78</v>
       </c>
       <c r="F30">
         <v>5.76</v>
       </c>
       <c r="G30">
-        <v>67.650000000000006</v>
+        <v>67.65</v>
       </c>
       <c r="H30">
-        <v>285.64999999999998</v>
+        <v>285.65</v>
       </c>
       <c r="I30">
         <v>211.79</v>
@@ -2020,7 +3846,7 @@
         <v>61</v>
       </c>
       <c r="L30">
-        <v>143.58000000000001</v>
+        <v>143.58</v>
       </c>
       <c r="M30">
         <v>643.77</v>
@@ -2038,12 +3864,12 @@
         <v>36.08</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>3.5763888888888894E-3</v>
+        <v>0.00357638888888889</v>
       </c>
       <c r="B31" s="1">
-        <v>0.43961805555555555</v>
+        <v>0.439618055555556</v>
       </c>
       <c r="C31">
         <v>103.27</v>
@@ -2058,10 +3884,10 @@
         <v>5.73</v>
       </c>
       <c r="G31">
-        <v>66.239999999999995</v>
+        <v>66.24</v>
       </c>
       <c r="H31">
-        <v>282.35000000000002</v>
+        <v>282.35</v>
       </c>
       <c r="I31">
         <v>194.59</v>
@@ -2073,13 +3899,13 @@
         <v>61</v>
       </c>
       <c r="L31">
-        <v>142.36000000000001</v>
+        <v>142.36</v>
       </c>
       <c r="M31">
         <v>638.36</v>
       </c>
       <c r="N31">
-        <v>1084.1300000000001</v>
+        <v>1084.13</v>
       </c>
       <c r="O31">
         <v>6.17</v>
@@ -2091,12 +3917,12 @@
         <v>44.65</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>3.6921296296296298E-3</v>
+        <v>0.00369212962962963</v>
       </c>
       <c r="B32" s="1">
-        <v>0.43973379629629633</v>
+        <v>0.439733796296296</v>
       </c>
       <c r="C32">
         <v>109.42</v>
@@ -2111,7 +3937,7 @@
         <v>6.26</v>
       </c>
       <c r="G32">
-        <v>66.709999999999994</v>
+        <v>66.71</v>
       </c>
       <c r="H32">
         <v>269.33</v>
@@ -2144,12 +3970,12 @@
         <v>41.23</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>3.8078703703703707E-3</v>
+        <v>0.00380787037037037</v>
       </c>
       <c r="B33" s="1">
-        <v>0.43984953703703705</v>
+        <v>0.439849537037037</v>
       </c>
       <c r="C33">
         <v>111.66</v>
@@ -2164,10 +3990,10 @@
         <v>6.14</v>
       </c>
       <c r="G33">
-        <v>65.599999999999994</v>
+        <v>65.6</v>
       </c>
       <c r="H33">
-        <v>274.52999999999997</v>
+        <v>274.53</v>
       </c>
       <c r="I33">
         <v>187.15</v>
@@ -2194,15 +4020,15 @@
         <v>99.94</v>
       </c>
       <c r="Q33">
-        <v>37.119999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+        <v>37.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>3.9236111111111112E-3</v>
+        <v>0.00392361111111111</v>
       </c>
       <c r="B34" s="1">
-        <v>0.43996527777777777</v>
+        <v>0.439965277777778</v>
       </c>
       <c r="C34">
         <v>115.16</v>
@@ -2232,7 +4058,7 @@
         <v>59</v>
       </c>
       <c r="L34">
-        <v>143.33000000000001</v>
+        <v>143.33</v>
       </c>
       <c r="M34">
         <v>559.77</v>
@@ -2250,12 +4076,12 @@
         <v>32.86</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
-        <v>4.0393518518518521E-3</v>
+        <v>0.00403935185185185</v>
       </c>
       <c r="B35" s="1">
-        <v>0.4400810185185185</v>
+        <v>0.440081018518518</v>
       </c>
       <c r="C35">
         <v>110.11</v>
@@ -2297,21 +4123,21 @@
         <v>6.67</v>
       </c>
       <c r="P35">
-        <v>130.05000000000001</v>
+        <v>130.05</v>
       </c>
       <c r="Q35">
         <v>39.71</v>
       </c>
       <c r="S35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>4.155092592592593E-3</v>
+        <v>0.00415509259259259</v>
       </c>
       <c r="B36" s="1">
-        <v>0.44019675925925927</v>
+        <v>0.440196759259259</v>
       </c>
       <c r="C36">
         <v>114.2</v>
@@ -2341,7 +4167,7 @@
         <v>60</v>
       </c>
       <c r="L36">
-        <v>137.83000000000001</v>
+        <v>137.83</v>
       </c>
       <c r="M36">
         <v>586.53</v>
@@ -2359,12 +4185,12 @@
         <v>39.06</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>4.2708333333333339E-3</v>
+        <v>0.00427083333333333</v>
       </c>
       <c r="B37" s="1">
-        <v>0.44031250000000005</v>
+        <v>0.4403125</v>
       </c>
       <c r="C37">
         <v>124.94</v>
@@ -2412,12 +4238,12 @@
         <v>39.36</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
-        <v>4.386574074074074E-3</v>
+        <v>0.00438657407407407</v>
       </c>
       <c r="B38" s="1">
-        <v>0.44042824074074072</v>
+        <v>0.440428240740741</v>
       </c>
       <c r="C38">
         <v>124.06</v>
@@ -2432,7 +4258,7 @@
         <v>6.85</v>
       </c>
       <c r="G38">
-        <v>65.180000000000007</v>
+        <v>65.18</v>
       </c>
       <c r="H38">
         <v>291.05</v>
@@ -2465,15 +4291,15 @@
         <v>45.49</v>
       </c>
       <c r="S38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>4.5023148148148149E-3</v>
+        <v>0.00450231481481481</v>
       </c>
       <c r="B39" s="1">
-        <v>0.44054398148148149</v>
+        <v>0.440543981481481</v>
       </c>
       <c r="C39">
         <v>128.9</v>
@@ -2521,12 +4347,12 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>4.6180555555555558E-3</v>
+        <v>0.00461805555555556</v>
       </c>
       <c r="B40" s="1">
-        <v>0.44065972222222222</v>
+        <v>0.440659722222222</v>
       </c>
       <c r="C40">
         <v>135.16</v>
@@ -2574,12 +4400,12 @@
         <v>40.76</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>4.7337962962962958E-3</v>
+        <v>0.0047337962962963</v>
       </c>
       <c r="B41" s="1">
-        <v>0.44077546296296299</v>
+        <v>0.440775462962963</v>
       </c>
       <c r="C41">
         <v>139.46</v>
@@ -2603,13 +4429,13 @@
         <v>204.76</v>
       </c>
       <c r="J41">
-        <v>135.08000000000001</v>
+        <v>135.08</v>
       </c>
       <c r="K41">
         <v>54.04</v>
       </c>
       <c r="L41">
-        <v>146.30000000000001</v>
+        <v>146.3</v>
       </c>
       <c r="M41">
         <v>433.2</v>
@@ -2627,15 +4453,15 @@
         <v>44.27</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>4.8495370370370368E-3</v>
+        <v>0.00484953703703704</v>
       </c>
       <c r="B42" s="1">
-        <v>0.44089120370370366</v>
+        <v>0.440891203703704</v>
       </c>
       <c r="C42">
-        <v>145.33000000000001</v>
+        <v>145.33</v>
       </c>
       <c r="D42">
         <v>96.38</v>
@@ -2680,12 +4506,12 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>4.9652777777777777E-3</v>
+        <v>0.00496527777777778</v>
       </c>
       <c r="B43" s="1">
-        <v>0.44100694444444444</v>
+        <v>0.441006944444444</v>
       </c>
       <c r="C43">
         <v>152.28</v>
@@ -2733,12 +4559,12 @@
         <v>44.65</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>5.0810185185185186E-3</v>
+        <v>0.00508101851851852</v>
       </c>
       <c r="B44" s="1">
-        <v>0.44112268518518521</v>
+        <v>0.441122685185185</v>
       </c>
       <c r="C44">
         <v>152.12</v>
@@ -2774,7 +4600,7 @@
         <v>384.83</v>
       </c>
       <c r="N44">
-        <v>653.54999999999995</v>
+        <v>653.55</v>
       </c>
       <c r="O44">
         <v>9.1</v>
@@ -2786,15 +4612,15 @@
         <v>44.82</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>5.1967592592592595E-3</v>
+        <v>0.00519675925925926</v>
       </c>
       <c r="B45" s="1">
-        <v>0.44123842592592594</v>
+        <v>0.441238425925926</v>
       </c>
       <c r="C45">
-        <v>153.38999999999999</v>
+        <v>153.39</v>
       </c>
       <c r="D45">
         <v>102.82</v>
@@ -2803,10 +4629,10 @@
         <v>15.77</v>
       </c>
       <c r="F45">
-        <v>9.2899999999999991</v>
+        <v>9.29</v>
       </c>
       <c r="G45">
-        <v>66.680000000000007</v>
+        <v>66.68</v>
       </c>
       <c r="H45">
         <v>213.12</v>
@@ -2827,7 +4653,7 @@
         <v>368.65</v>
       </c>
       <c r="N45">
-        <v>626.08000000000004</v>
+        <v>626.08</v>
       </c>
       <c r="O45">
         <v>9.32</v>
@@ -2839,75 +4665,75 @@
         <v>47.49</v>
       </c>
       <c r="S45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U45">
         <f>AVERAGE(C39:C45)</f>
-        <v>143.80571428571429</v>
+        <v>143.805714285714</v>
       </c>
       <c r="V45">
         <f t="shared" ref="V45:AI45" si="1">AVERAGE(D39:D45)</f>
-        <v>98.964285714285708</v>
+        <v>98.9642857142857</v>
       </c>
       <c r="W45">
         <f t="shared" si="1"/>
-        <v>14.241428571428571</v>
+        <v>14.2414285714286</v>
       </c>
       <c r="X45">
         <f t="shared" si="1"/>
-        <v>8.3885714285714297</v>
+        <v>8.38857142857143</v>
       </c>
       <c r="Y45">
         <f t="shared" si="1"/>
-        <v>66.931428571428569</v>
+        <v>66.9314285714286</v>
       </c>
       <c r="Z45">
         <f t="shared" si="1"/>
-        <v>229.62571428571431</v>
+        <v>229.625714285714</v>
       </c>
       <c r="AA45">
         <f t="shared" si="1"/>
-        <v>202.95714285714286</v>
+        <v>202.957142857143</v>
       </c>
       <c r="AB45">
         <f t="shared" si="1"/>
-        <v>134.86857142857144</v>
+        <v>134.868571428571</v>
       </c>
       <c r="AC45">
         <f t="shared" si="1"/>
-        <v>54.154285714285713</v>
+        <v>54.1542857142857</v>
       </c>
       <c r="AD45">
         <f t="shared" si="1"/>
-        <v>147.8557142857143</v>
+        <v>147.855714285714</v>
       </c>
       <c r="AE45">
         <f t="shared" si="1"/>
-        <v>419.0385714285714</v>
+        <v>419.038571428571</v>
       </c>
       <c r="AF45">
         <f t="shared" si="1"/>
-        <v>711.64999999999986</v>
+        <v>711.65</v>
       </c>
       <c r="AG45">
         <f t="shared" si="1"/>
-        <v>8.5757142857142856</v>
+        <v>8.57571428571429</v>
       </c>
       <c r="AH45">
         <f t="shared" si="1"/>
-        <v>99.531428571428577</v>
+        <v>99.5314285714286</v>
       </c>
       <c r="AI45">
         <f t="shared" si="1"/>
-        <v>43.284285714285716</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+        <v>43.2842857142857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>5.3125000000000004E-3</v>
+        <v>0.0053125</v>
       </c>
       <c r="B46" s="1">
-        <v>0.44135416666666666</v>
+        <v>0.441354166666667</v>
       </c>
       <c r="C46">
         <v>158.85</v>
@@ -2955,27 +4781,27 @@
         <v>46.23</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>5.4282407407407404E-3</v>
+        <v>0.00542824074074074</v>
       </c>
       <c r="B47" s="1">
-        <v>0.44146990740740738</v>
+        <v>0.441469907407407</v>
       </c>
       <c r="C47">
-        <v>162.41999999999999</v>
+        <v>162.42</v>
       </c>
       <c r="D47">
         <v>102.19</v>
       </c>
       <c r="E47">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="F47">
         <v>9.77</v>
       </c>
       <c r="G47">
-        <v>66.540000000000006</v>
+        <v>66.54</v>
       </c>
       <c r="H47">
         <v>208.74</v>
@@ -3008,12 +4834,12 @@
         <v>48.54</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>5.5439814814814822E-3</v>
+        <v>0.00554398148148148</v>
       </c>
       <c r="B48" s="1">
-        <v>0.44158564814814816</v>
+        <v>0.441585648148148</v>
       </c>
       <c r="C48">
         <v>164.37</v>
@@ -3025,7 +4851,7 @@
         <v>16.78</v>
       </c>
       <c r="F48">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="G48">
         <v>65.41</v>
@@ -3052,7 +4878,7 @@
         <v>577.99</v>
       </c>
       <c r="O48">
-        <v>9.7200000000000006</v>
+        <v>9.72</v>
       </c>
       <c r="P48">
         <v>84.57</v>
@@ -3061,11 +4887,11 @@
         <v>35.65</v>
       </c>
       <c r="S48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U48">
         <f>AVERAGE(C45:C48)</f>
-        <v>159.75749999999999</v>
+        <v>159.7575</v>
       </c>
       <c r="V48">
         <f t="shared" ref="V48:AI48" si="2">AVERAGE(D45:D48)</f>
@@ -3077,15 +4903,15 @@
       </c>
       <c r="X48">
         <f t="shared" si="2"/>
-        <v>9.6974999999999998</v>
+        <v>9.6975</v>
       </c>
       <c r="Y48">
         <f t="shared" si="2"/>
-        <v>66.462500000000006</v>
+        <v>66.4625</v>
       </c>
       <c r="Z48">
         <f t="shared" si="2"/>
-        <v>220.64749999999998</v>
+        <v>220.6475</v>
       </c>
       <c r="AA48">
         <f t="shared" si="2"/>
@@ -3101,11 +4927,11 @@
       </c>
       <c r="AD48">
         <f t="shared" si="2"/>
-        <v>155.14499999999998</v>
+        <v>155.145</v>
       </c>
       <c r="AE48">
         <f t="shared" si="2"/>
-        <v>351.71249999999998</v>
+        <v>351.7125</v>
       </c>
       <c r="AF48">
         <f t="shared" si="2"/>
@@ -3113,23 +4939,23 @@
       </c>
       <c r="AG48">
         <f t="shared" si="2"/>
-        <v>9.6824999999999992</v>
+        <v>9.6825</v>
       </c>
       <c r="AH48">
         <f t="shared" si="2"/>
-        <v>92.832499999999996</v>
+        <v>92.8325</v>
       </c>
       <c r="AI48">
         <f t="shared" si="2"/>
-        <v>44.477499999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+        <v>44.4775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>5.6597222222222222E-3</v>
+        <v>0.00565972222222222</v>
       </c>
       <c r="B49" s="1">
-        <v>0.44170138888888894</v>
+        <v>0.441701388888889</v>
       </c>
       <c r="C49">
         <v>165.31</v>
@@ -3141,7 +4967,7 @@
         <v>16.09</v>
       </c>
       <c r="F49">
-        <v>9.4700000000000006</v>
+        <v>9.47</v>
       </c>
       <c r="G49">
         <v>64.95</v>
@@ -3168,21 +4994,21 @@
         <v>605.52</v>
       </c>
       <c r="O49">
-        <v>9.3699999999999992</v>
+        <v>9.37</v>
       </c>
       <c r="P49">
-        <v>78.239999999999995</v>
+        <v>78.24</v>
       </c>
       <c r="Q49">
-        <v>34.950000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+        <v>34.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>5.7754629629629623E-3</v>
+        <v>0.00577546296296296</v>
       </c>
       <c r="B50" s="1">
-        <v>0.4418171296296296</v>
+        <v>0.44181712962963</v>
       </c>
       <c r="C50">
         <v>166.89</v>
@@ -3194,10 +5020,10 @@
         <v>16.77</v>
       </c>
       <c r="F50">
-        <v>9.8699999999999992</v>
+        <v>9.87</v>
       </c>
       <c r="G50">
-        <v>66.459999999999994</v>
+        <v>66.46</v>
       </c>
       <c r="H50">
         <v>211.56</v>
@@ -3224,18 +5050,18 @@
         <v>9.81</v>
       </c>
       <c r="P50">
-        <v>77.959999999999994</v>
+        <v>77.96</v>
       </c>
       <c r="Q50">
         <v>44.9</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.8912037037037032E-3</v>
+        <v>0.0058912037037037</v>
       </c>
       <c r="B51" s="1">
-        <v>0.44193287037037038</v>
+        <v>0.44193287037037</v>
       </c>
       <c r="C51">
         <v>169.81</v>
@@ -3250,7 +5076,7 @@
         <v>10.33</v>
       </c>
       <c r="G51">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="H51">
         <v>197.79</v>
@@ -3265,25 +5091,25 @@
         <v>50.03</v>
       </c>
       <c r="L51">
-        <v>154.38999999999999</v>
+        <v>154.39</v>
       </c>
       <c r="M51">
-        <v>327.08999999999997</v>
+        <v>327.09</v>
       </c>
       <c r="N51">
         <v>555.5</v>
       </c>
       <c r="O51">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="P51">
-        <v>81.790000000000006</v>
+        <v>81.79</v>
       </c>
       <c r="Q51">
         <v>56.09</v>
       </c>
       <c r="S51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U51">
         <f>AVERAGE(C48:C51)</f>
@@ -3291,31 +5117,31 @@
       </c>
       <c r="V51">
         <f t="shared" ref="V51:AI51" si="3">AVERAGE(D48:D51)</f>
-        <v>100.78749999999999</v>
+        <v>100.7875</v>
       </c>
       <c r="W51">
         <f t="shared" si="3"/>
-        <v>16.795000000000002</v>
+        <v>16.795</v>
       </c>
       <c r="X51">
         <f t="shared" si="3"/>
-        <v>9.8874999999999993</v>
+        <v>9.8875</v>
       </c>
       <c r="Y51">
         <f t="shared" si="3"/>
-        <v>65.930000000000007</v>
+        <v>65.93</v>
       </c>
       <c r="Z51">
         <f t="shared" si="3"/>
-        <v>237.47249999999997</v>
+        <v>237.4725</v>
       </c>
       <c r="AA51">
         <f t="shared" si="3"/>
-        <v>191.25250000000003</v>
+        <v>191.2525</v>
       </c>
       <c r="AB51">
         <f t="shared" si="3"/>
-        <v>133.49250000000001</v>
+        <v>133.4925</v>
       </c>
       <c r="AC51">
         <f t="shared" si="3"/>
@@ -3323,19 +5149,19 @@
       </c>
       <c r="AD51">
         <f t="shared" si="3"/>
-        <v>152.86749999999998</v>
+        <v>152.8675</v>
       </c>
       <c r="AE51">
         <f t="shared" si="3"/>
-        <v>341.95499999999998</v>
+        <v>341.955</v>
       </c>
       <c r="AF51">
         <f t="shared" si="3"/>
-        <v>580.74250000000006</v>
+        <v>580.7425</v>
       </c>
       <c r="AG51">
         <f t="shared" si="3"/>
-        <v>9.7774999999999999</v>
+        <v>9.7775</v>
       </c>
       <c r="AH51">
         <f t="shared" si="3"/>
@@ -3343,15 +5169,15 @@
       </c>
       <c r="AI51">
         <f t="shared" si="3"/>
-        <v>42.897500000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+        <v>42.8975</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>6.0069444444444441E-3</v>
+        <v>0.00600694444444444</v>
       </c>
       <c r="B52" s="1">
-        <v>0.4420486111111111</v>
+        <v>0.442048611111111</v>
       </c>
       <c r="C52">
         <v>172.43</v>
@@ -3384,7 +5210,7 @@
         <v>157.13</v>
       </c>
       <c r="M52">
-        <v>320.39999999999998</v>
+        <v>320.4</v>
       </c>
       <c r="N52">
         <v>544.13</v>
@@ -3399,12 +5225,12 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>6.122685185185185E-3</v>
+        <v>0.00612268518518518</v>
       </c>
       <c r="B53" s="1">
-        <v>0.44216435185185188</v>
+        <v>0.442164351851852</v>
       </c>
       <c r="C53">
         <v>173.54</v>
@@ -3419,7 +5245,7 @@
         <v>10.31</v>
       </c>
       <c r="G53">
-        <v>65.180000000000007</v>
+        <v>65.18</v>
       </c>
       <c r="H53">
         <v>197.79</v>
@@ -3440,7 +5266,7 @@
         <v>321.83</v>
       </c>
       <c r="N53">
-        <v>546.57000000000005</v>
+        <v>546.57</v>
       </c>
       <c r="O53">
         <v>10</v>
@@ -3452,12 +5278,12 @@
         <v>55.69</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>6.238425925925925E-3</v>
+        <v>0.00623842592592593</v>
       </c>
       <c r="B54" s="1">
-        <v>0.44228009259259254</v>
+        <v>0.442280092592593</v>
       </c>
       <c r="C54">
         <v>174.44</v>
@@ -3487,7 +5313,7 @@
         <v>50</v>
       </c>
       <c r="L54">
-        <v>154.55000000000001</v>
+        <v>154.55</v>
       </c>
       <c r="M54">
         <v>319.06</v>
@@ -3505,11 +5331,11 @@
         <v>54.25</v>
       </c>
       <c r="S54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U54">
         <f>AVERAGE(C51:C54)</f>
-        <v>172.55500000000001</v>
+        <v>172.555</v>
       </c>
       <c r="V54">
         <f t="shared" ref="V54" si="4">AVERAGE(D51:D54)</f>
@@ -3521,39 +5347,39 @@
       </c>
       <c r="X54">
         <f t="shared" ref="X54" si="6">AVERAGE(F51:F54)</f>
-        <v>10.415000000000001</v>
+        <v>10.415</v>
       </c>
       <c r="Y54">
         <f t="shared" ref="Y54" si="7">AVERAGE(G51:G54)</f>
-        <v>66.052500000000009</v>
+        <v>66.0525</v>
       </c>
       <c r="Z54">
         <f t="shared" ref="Z54" si="8">AVERAGE(H51:H54)</f>
-        <v>199.00749999999999</v>
+        <v>199.0075</v>
       </c>
       <c r="AA54">
         <f t="shared" ref="AA54" si="9">AVERAGE(I51:I54)</f>
-        <v>192.63250000000002</v>
+        <v>192.6325</v>
       </c>
       <c r="AB54">
         <f t="shared" ref="AB54" si="10">AVERAGE(J51:J54)</f>
-        <v>133.97499999999999</v>
+        <v>133.975</v>
       </c>
       <c r="AC54">
         <f t="shared" ref="AC54" si="11">AVERAGE(K51:K54)</f>
-        <v>50.265000000000001</v>
+        <v>50.265</v>
       </c>
       <c r="AD54">
         <f t="shared" ref="AD54" si="12">AVERAGE(L51:L54)</f>
-        <v>155.19749999999999</v>
+        <v>155.1975</v>
       </c>
       <c r="AE54">
         <f t="shared" ref="AE54" si="13">AVERAGE(M51:M54)</f>
-        <v>322.09499999999997</v>
+        <v>322.095</v>
       </c>
       <c r="AF54">
         <f t="shared" ref="AF54" si="14">AVERAGE(N51:N54)</f>
-        <v>547.0150000000001</v>
+        <v>547.015</v>
       </c>
       <c r="AG54">
         <f t="shared" ref="AG54" si="15">AVERAGE(O51:O54)</f>
@@ -3561,19 +5387,19 @@
       </c>
       <c r="AH54">
         <f t="shared" ref="AH54" si="16">AVERAGE(P51:P54)</f>
-        <v>83.427500000000009</v>
+        <v>83.4275</v>
       </c>
       <c r="AI54">
         <f t="shared" ref="AI54" si="17">AVERAGE(Q51:Q54)</f>
-        <v>56.107500000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+        <v>56.1075</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
-        <v>6.3541666666666668E-3</v>
+        <v>0.00635416666666667</v>
       </c>
       <c r="B55" s="1">
-        <v>0.44239583333333332</v>
+        <v>0.442395833333333</v>
       </c>
       <c r="C55">
         <v>175.26</v>
@@ -3609,7 +5435,7 @@
         <v>313.74</v>
       </c>
       <c r="N55">
-        <v>532.82000000000005</v>
+        <v>532.82</v>
       </c>
       <c r="O55">
         <v>10.16</v>
@@ -3621,15 +5447,15 @@
         <v>61.88</v>
       </c>
       <c r="S55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>6.4699074074074069E-3</v>
+        <v>0.00646990740740741</v>
       </c>
       <c r="B56" s="1">
-        <v>0.4425115740740741</v>
+        <v>0.442511574074074</v>
       </c>
       <c r="C56">
         <v>177.01</v>
@@ -3662,7 +5488,7 @@
         <v>156.12</v>
       </c>
       <c r="M56">
-        <v>315.33999999999997</v>
+        <v>315.34</v>
       </c>
       <c r="N56">
         <v>535.54</v>
@@ -3671,18 +5497,18 @@
         <v>9.91</v>
       </c>
       <c r="P56">
-        <v>81.849999999999994</v>
+        <v>81.85</v>
       </c>
       <c r="Q56">
         <v>60.56</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.5856481481481469E-3</v>
+        <v>0.00658564814814815</v>
       </c>
       <c r="B57" s="1">
-        <v>0.44262731481481482</v>
+        <v>0.442627314814815</v>
       </c>
       <c r="C57">
         <v>166.09</v>
@@ -3694,10 +5520,10 @@
         <v>16.05</v>
       </c>
       <c r="F57">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="G57">
-        <v>65.349999999999994</v>
+        <v>65.35</v>
       </c>
       <c r="H57">
         <v>278.86</v>
@@ -3721,24 +5547,24 @@
         <v>598.13</v>
       </c>
       <c r="O57">
-        <v>9.2100000000000009</v>
+        <v>9.21</v>
       </c>
       <c r="P57">
         <v>84.26</v>
       </c>
       <c r="Q57">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.7013888888888887E-3</v>
+        <v>0.00670138888888889</v>
       </c>
       <c r="B58" s="1">
-        <v>0.44274305555555554</v>
+        <v>0.442743055555556</v>
       </c>
       <c r="C58">
-        <v>155.97999999999999</v>
+        <v>155.98</v>
       </c>
       <c r="D58">
         <v>100.66</v>
@@ -3783,12 +5609,12 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>6.8171296296296287E-3</v>
+        <v>0.00681712962962963</v>
       </c>
       <c r="B59" s="1">
-        <v>0.44285879629629626</v>
+        <v>0.442858796296296</v>
       </c>
       <c r="C59">
         <v>146.29</v>
@@ -3800,7 +5626,7 @@
         <v>14.93</v>
       </c>
       <c r="F59">
-        <v>8.7899999999999991</v>
+        <v>8.79</v>
       </c>
       <c r="G59">
         <v>69.58</v>
@@ -3836,12 +5662,12 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>6.9328703703703696E-3</v>
+        <v>0.00693287037037037</v>
       </c>
       <c r="B60" s="1">
-        <v>0.44297453703703704</v>
+        <v>0.442974537037037</v>
       </c>
       <c r="C60">
         <v>138.19</v>
@@ -3856,10 +5682,10 @@
         <v>8.15</v>
       </c>
       <c r="G60">
-        <v>70.150000000000006</v>
+        <v>70.15</v>
       </c>
       <c r="H60">
-        <v>318.08999999999997</v>
+        <v>318.09</v>
       </c>
       <c r="I60">
         <v>244.74</v>
@@ -3871,7 +5697,7 @@
         <v>60</v>
       </c>
       <c r="L60">
-        <v>142.86000000000001</v>
+        <v>142.86</v>
       </c>
       <c r="M60">
         <v>458.36</v>
@@ -3880,7 +5706,7 @@
         <v>778.43</v>
       </c>
       <c r="O60">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="P60">
         <v>116.74</v>
@@ -3889,15 +5715,15 @@
         <v>39.33</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>7.0486111111111105E-3</v>
+        <v>0.00704861111111111</v>
       </c>
       <c r="B61" s="1">
-        <v>0.44309027777777782</v>
+        <v>0.443090277777778</v>
       </c>
       <c r="C61">
-        <v>136.44999999999999</v>
+        <v>136.45</v>
       </c>
       <c r="D61">
         <v>101.05</v>
@@ -3906,7 +5732,7 @@
         <v>13.79</v>
       </c>
       <c r="F61">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="G61">
         <v>69.22</v>
@@ -3942,12 +5768,12 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>7.1643518518518514E-3</v>
+        <v>0.00716435185185185</v>
       </c>
       <c r="B62" s="1">
-        <v>0.44320601851851849</v>
+        <v>0.443206018518518</v>
       </c>
       <c r="C62">
         <v>131.96</v>
@@ -3995,12 +5821,12 @@
         <v>44.62</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>7.2800925925925915E-3</v>
+        <v>0.00728009259259259</v>
       </c>
       <c r="B63" s="1">
-        <v>0.44332175925925926</v>
+        <v>0.443321759259259</v>
       </c>
       <c r="C63">
         <v>129.93</v>
@@ -4030,7 +5856,7 @@
         <v>60</v>
       </c>
       <c r="L63">
-        <v>141.22999999999999</v>
+        <v>141.23</v>
       </c>
       <c r="M63">
         <v>492.44</v>
@@ -4045,18 +5871,18 @@
         <v>110.69</v>
       </c>
       <c r="Q63">
-        <v>34.729999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+        <v>34.73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>7.3958333333333341E-3</v>
+        <v>0.00739583333333333</v>
       </c>
       <c r="B64" s="1">
-        <v>0.44343749999999998</v>
+        <v>0.4434375</v>
       </c>
       <c r="C64">
-        <v>131.52000000000001</v>
+        <v>131.52</v>
       </c>
       <c r="D64">
         <v>103.73</v>
@@ -4065,7 +5891,7 @@
         <v>13.64</v>
       </c>
       <c r="F64">
-        <v>8.0299999999999994</v>
+        <v>8.03</v>
       </c>
       <c r="G64">
         <v>71.59</v>
@@ -4074,7 +5900,7 @@
         <v>372.36</v>
       </c>
       <c r="I64">
-        <v>265.52999999999997</v>
+        <v>265.53</v>
       </c>
       <c r="J64">
         <v>139</v>
@@ -4101,36 +5927,46 @@
         <v>34.46</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>